--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H2">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I2">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J2">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="N2">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="O2">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="P2">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="Q2">
-        <v>6.849663353478777</v>
+        <v>70.865988987628</v>
       </c>
       <c r="R2">
-        <v>61.64697018130899</v>
+        <v>637.7939008886519</v>
       </c>
       <c r="S2">
-        <v>1.971035876726686E-05</v>
+        <v>0.0001050638869856003</v>
       </c>
       <c r="T2">
-        <v>2.162407928655129E-05</v>
+        <v>0.0001200412825172853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H3">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I3">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J3">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.069543</v>
       </c>
       <c r="O3">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="P3">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="Q3">
-        <v>9.673968780917443</v>
+        <v>14.79614366311622</v>
       </c>
       <c r="R3">
-        <v>87.06571902825698</v>
+        <v>133.165292968046</v>
       </c>
       <c r="S3">
-        <v>2.783748419962589E-05</v>
+        <v>2.193633910782993E-05</v>
       </c>
       <c r="T3">
-        <v>3.054028455689547E-05</v>
+        <v>2.50634766691898E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H4">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I4">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J4">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="N4">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="O4">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="P4">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="Q4">
-        <v>9324.152569381165</v>
+        <v>20252.18700872902</v>
       </c>
       <c r="R4">
-        <v>83917.37312443048</v>
+        <v>182269.6830785611</v>
       </c>
       <c r="S4">
-        <v>0.02683086494315042</v>
+        <v>0.03002531281215622</v>
       </c>
       <c r="T4">
-        <v>0.02943593050274482</v>
+        <v>0.03430557503024708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H5">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I5">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J5">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="N5">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="O5">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="P5">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="Q5">
-        <v>15.45825848993917</v>
+        <v>249.943135693174</v>
       </c>
       <c r="R5">
-        <v>92.74955093963499</v>
+        <v>1499.658814159044</v>
       </c>
       <c r="S5">
-        <v>4.448215992967103E-05</v>
+        <v>0.0003705585392433986</v>
       </c>
       <c r="T5">
-        <v>3.253401809386552E-05</v>
+        <v>0.000282255705391939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H6">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I6">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J6">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="N6">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="O6">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="P6">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="Q6">
-        <v>7140.579384993028</v>
+        <v>14633.1110751412</v>
       </c>
       <c r="R6">
-        <v>64265.21446493724</v>
+        <v>131697.9996762708</v>
       </c>
       <c r="S6">
-        <v>0.02054748886496475</v>
+        <v>0.02169463165912746</v>
       </c>
       <c r="T6">
-        <v>0.02254248812017639</v>
+        <v>0.02478731258494834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I7">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J7">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="N7">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="O7">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="P7">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="Q7">
-        <v>52.28367557584267</v>
+        <v>353.664019326576</v>
       </c>
       <c r="R7">
-        <v>470.553080182584</v>
+        <v>3182.976173939184</v>
       </c>
       <c r="S7">
-        <v>0.0001504497301678141</v>
+        <v>0.0005243321526760545</v>
       </c>
       <c r="T7">
-        <v>0.0001650572134278906</v>
+        <v>0.0005990783881897418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I8">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J8">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.069543</v>
       </c>
       <c r="O8">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="P8">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="Q8">
         <v>73.84167938931468</v>
@@ -948,10 +948,10 @@
         <v>664.575114503832</v>
       </c>
       <c r="S8">
-        <v>0.0002124843101963108</v>
+        <v>0.0001094755604065629</v>
       </c>
       <c r="T8">
-        <v>0.0002331148623465833</v>
+        <v>0.0001250818625937901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I9">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J9">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="N9">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="O9">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="P9">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="Q9">
-        <v>71171.5222777474</v>
+        <v>101070.6258387365</v>
       </c>
       <c r="R9">
-        <v>640543.7004997266</v>
+        <v>909635.6325486285</v>
       </c>
       <c r="S9">
-        <v>0.2048007567254339</v>
+        <v>0.1498444170805093</v>
       </c>
       <c r="T9">
-        <v>0.2246852963798479</v>
+        <v>0.1712055066729508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I10">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J10">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="N10">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="O10">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="P10">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="Q10">
-        <v>117.99332757646</v>
+        <v>1247.366970180408</v>
       </c>
       <c r="R10">
-        <v>707.9599654587601</v>
+        <v>7484.201821082449</v>
       </c>
       <c r="S10">
-        <v>0.0003395335943765042</v>
+        <v>0.001849310568536407</v>
       </c>
       <c r="T10">
-        <v>0.0002483330872508304</v>
+        <v>0.001408626178408356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I11">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J11">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="N11">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="O11">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="P11">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="Q11">
-        <v>54504.24593479</v>
+        <v>73028.0484618676</v>
       </c>
       <c r="R11">
-        <v>490538.2134131099</v>
+        <v>657252.4361568084</v>
       </c>
       <c r="S11">
-        <v>0.1568395680597131</v>
+        <v>0.1082692944808279</v>
       </c>
       <c r="T11">
-        <v>0.1720674542273681</v>
+        <v>0.1237036372783496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H12">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I12">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J12">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="N12">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="O12">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="P12">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="Q12">
-        <v>21.39357348914566</v>
+        <v>178.717483345214</v>
       </c>
       <c r="R12">
-        <v>192.542161402311</v>
+        <v>1608.457350106926</v>
       </c>
       <c r="S12">
-        <v>6.156142090848765E-05</v>
+        <v>0.0002649614256538574</v>
       </c>
       <c r="T12">
-        <v>6.753854977661E-05</v>
+        <v>0.0003027330347815577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H13">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I13">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J13">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.069543</v>
       </c>
       <c r="O13">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="P13">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="Q13">
-        <v>30.21473485133366</v>
+        <v>37.31450864459144</v>
       </c>
       <c r="R13">
-        <v>271.932613662003</v>
+        <v>335.830577801323</v>
       </c>
       <c r="S13">
-        <v>8.694489542689217E-05</v>
+        <v>5.532142252107705E-05</v>
       </c>
       <c r="T13">
-        <v>9.538655964975786E-05</v>
+        <v>6.320777481820078E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H14">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I14">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J14">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="N14">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="O14">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="P14">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="Q14">
-        <v>29122.15285963694</v>
+        <v>51074.14637321405</v>
       </c>
       <c r="R14">
-        <v>262099.3757367325</v>
+        <v>459667.3173589264</v>
       </c>
       <c r="S14">
-        <v>0.08380091857318883</v>
+        <v>0.07572106759673093</v>
       </c>
       <c r="T14">
-        <v>0.09193732741800023</v>
+        <v>0.08651549384552498</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H15">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I15">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J15">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="N15">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="O15">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="P15">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="Q15">
-        <v>48.2808237357775</v>
+        <v>630.333518640287</v>
       </c>
       <c r="R15">
-        <v>289.684942414665</v>
+        <v>3782.001111841722</v>
       </c>
       <c r="S15">
-        <v>0.0001389312595819818</v>
+        <v>0.0009345144336759449</v>
       </c>
       <c r="T15">
-        <v>0.0001016135934089105</v>
+        <v>0.0007118228369928226</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H16">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I16">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J16">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="N16">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="O16">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="P16">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="Q16">
-        <v>22302.19237713961</v>
+        <v>36903.35550551313</v>
       </c>
       <c r="R16">
-        <v>200719.7313942565</v>
+        <v>332130.1995496182</v>
       </c>
       <c r="S16">
-        <v>0.0641760317792511</v>
+        <v>0.05471185864487912</v>
       </c>
       <c r="T16">
-        <v>0.07040701875987182</v>
+        <v>0.06251131448749708</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H17">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I17">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J17">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="N17">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="O17">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="P17">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="Q17">
-        <v>38.18640637412516</v>
+        <v>499.5332474076899</v>
       </c>
       <c r="R17">
-        <v>229.118438244751</v>
+        <v>2997.19948444614</v>
       </c>
       <c r="S17">
-        <v>0.0001098839068177549</v>
+        <v>0.0007405936952400973</v>
       </c>
       <c r="T17">
-        <v>8.036851219198231E-05</v>
+        <v>0.0005641127479766757</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H18">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I18">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J18">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.069543</v>
       </c>
       <c r="O18">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="P18">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="Q18">
-        <v>53.93171664868716</v>
+        <v>104.297785139745</v>
       </c>
       <c r="R18">
-        <v>323.5902998921229</v>
+        <v>625.7867108384698</v>
       </c>
       <c r="S18">
-        <v>0.0001551920772194336</v>
+        <v>0.0001546289110942015</v>
       </c>
       <c r="T18">
-        <v>0.0001135066700057829</v>
+        <v>0.0001177813698855647</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H19">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I19">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J19">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="N19">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="O19">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="P19">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="Q19">
-        <v>51981.51511021346</v>
+        <v>142757.3493025608</v>
       </c>
       <c r="R19">
-        <v>311889.0906612807</v>
+        <v>856544.0958153646</v>
       </c>
       <c r="S19">
-        <v>0.1495802434681777</v>
+        <v>0.2116479601534471</v>
       </c>
       <c r="T19">
-        <v>0.1094022042808319</v>
+        <v>0.1612129743652654</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H20">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I20">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J20">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="N20">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="O20">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="P20">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="Q20">
-        <v>86.17873756281624</v>
+        <v>1761.845252196645</v>
       </c>
       <c r="R20">
-        <v>344.714950251265</v>
+        <v>7047.38100878658</v>
       </c>
       <c r="S20">
-        <v>0.0002479850100385678</v>
+        <v>0.002612061344338555</v>
       </c>
       <c r="T20">
-        <v>0.0001209166223996032</v>
+        <v>0.001326410700234015</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H21">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I21">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J21">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="N21">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="O21">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="P21">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="Q21">
-        <v>39808.24342316918</v>
+        <v>103148.5709783698</v>
       </c>
       <c r="R21">
-        <v>238849.4605390151</v>
+        <v>618891.4258702188</v>
       </c>
       <c r="S21">
-        <v>0.1145508500599316</v>
+        <v>0.1529251190707239</v>
       </c>
       <c r="T21">
-        <v>0.0837818899623981</v>
+        <v>0.1164835856801062</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H22">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I22">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J22">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2524303333333333</v>
+        <v>1.707522</v>
       </c>
       <c r="N22">
-        <v>0.7572909999999999</v>
+        <v>5.122566</v>
       </c>
       <c r="O22">
-        <v>0.0004152138066912919</v>
+        <v>0.002012043481081613</v>
       </c>
       <c r="P22">
-        <v>0.0004153435393530768</v>
+        <v>0.002016814216842583</v>
       </c>
       <c r="Q22">
-        <v>25.58008698117478</v>
+        <v>254.350195870608</v>
       </c>
       <c r="R22">
-        <v>230.220782830573</v>
+        <v>2289.151762835472</v>
       </c>
       <c r="S22">
-        <v>7.360839002996837E-05</v>
+        <v>0.0003770923205260037</v>
       </c>
       <c r="T22">
-        <v>8.07551846700426E-05</v>
+        <v>0.000430848763377323</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H23">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I23">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J23">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.069543</v>
       </c>
       <c r="O23">
-        <v>0.0005864179297654724</v>
+        <v>0.000420095518708099</v>
       </c>
       <c r="P23">
-        <v>0.0005866011547876679</v>
+        <v>0.000421091602904573</v>
       </c>
       <c r="Q23">
-        <v>36.12746351152544</v>
+        <v>53.105898790184</v>
       </c>
       <c r="R23">
-        <v>325.147171603729</v>
+        <v>477.953089111656</v>
       </c>
       <c r="S23">
-        <v>0.00010395916272321</v>
+        <v>7.873328557842761E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001140527782286484</v>
+        <v>8.995711893782768E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H24">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I24">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J24">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>343.6225723333334</v>
+        <v>487.9781593333334</v>
       </c>
       <c r="N24">
-        <v>1030.867717</v>
+        <v>1463.934478</v>
       </c>
       <c r="O24">
-        <v>0.5652127240000627</v>
+        <v>0.5750047580041945</v>
       </c>
       <c r="P24">
-        <v>0.5653893235012776</v>
+        <v>0.5763681459167976</v>
       </c>
       <c r="Q24">
-        <v>34821.07388962112</v>
+        <v>72688.57467547247</v>
       </c>
       <c r="R24">
-        <v>313389.6650065901</v>
+        <v>654197.1720792522</v>
       </c>
       <c r="S24">
-        <v>0.1001999402901118</v>
+        <v>0.1077660003613509</v>
       </c>
       <c r="T24">
-        <v>0.1099285649198528</v>
+        <v>0.1231285960028093</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H25">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I25">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J25">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5696825</v>
+        <v>6.022401</v>
       </c>
       <c r="N25">
-        <v>1.139365</v>
+        <v>12.044802</v>
       </c>
       <c r="O25">
-        <v>0.000937050774789659</v>
+        <v>0.007096443075116684</v>
       </c>
       <c r="P25">
-        <v>0.0006248957028606154</v>
+        <v>0.004742179585905576</v>
       </c>
       <c r="Q25">
-        <v>57.72890963309916</v>
+        <v>897.0888070322641</v>
       </c>
       <c r="R25">
-        <v>346.373457798595</v>
+        <v>5382.532842193585</v>
       </c>
       <c r="S25">
-        <v>0.0001661187508629343</v>
+        <v>0.001329998189322378</v>
       </c>
       <c r="T25">
-        <v>0.0001214983817074058</v>
+        <v>0.001013064164878443</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H26">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I26">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J26">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>263.1514486666667</v>
+        <v>352.5860493333333</v>
       </c>
       <c r="N26">
-        <v>789.454346</v>
+        <v>1057.758148</v>
       </c>
       <c r="O26">
-        <v>0.432848593488691</v>
+        <v>0.415466659920899</v>
       </c>
       <c r="P26">
-        <v>0.4329838361017211</v>
+        <v>0.4164517686775497</v>
       </c>
       <c r="Q26">
-        <v>26666.5137157928</v>
+        <v>52520.74685373141</v>
       </c>
       <c r="R26">
-        <v>239998.6234421352</v>
+        <v>472686.7216835828</v>
       </c>
       <c r="S26">
-        <v>0.07673465472483049</v>
+        <v>0.0778657560653407</v>
       </c>
       <c r="T26">
-        <v>0.08418498503190676</v>
+        <v>0.08896591864664845</v>
       </c>
     </row>
   </sheetData>
